--- a/Data sets/Monthly International arrivals by state of clearance.xlsx
+++ b/Data sets/Monthly International arrivals by state of clearance.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" updateLinks="never" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F090D-8D21-47A1-992C-FF4B7F05DA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CFFB86-96B4-456B-BC96-0938549F0B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,15 +109,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -622,131 +630,174 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="39" applyFont="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="39" applyFont="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="82">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="61" xr:uid="{CD8EBE98-42DB-413F-96D1-C50DCBE0CA1F}"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="62" xr:uid="{7191FF16-8117-4552-A25C-BB7ECA8245CA}"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="63" xr:uid="{AEA579A6-4E5F-4247-9FCB-107FD52528AA}"/>
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="64" xr:uid="{4D725592-916C-4487-BAB2-8AF9E109412E}"/>
     <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="65" xr:uid="{8BFBFFCF-92B0-4DD3-BC59-C09094F6F898}"/>
     <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="66" xr:uid="{105694A9-4642-4C19-B8E0-8470F265FDAA}"/>
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="67" xr:uid="{8F1ECD65-F379-4F34-A0E2-4498E149C81A}"/>
     <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="68" xr:uid="{8848DD17-5F1E-4077-B056-E3B4C13556DF}"/>
     <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="69" xr:uid="{179DBDA5-0421-4029-81AF-2623E3F11197}"/>
     <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="70" xr:uid="{2BEBB8DB-DDE0-4B6E-A551-1CABC487EA22}"/>
     <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="71" xr:uid="{A85DEC43-55C6-47C3-B79E-ECD2D217154B}"/>
     <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="72" xr:uid="{59D8DB2F-80AC-4BD1-A25F-FB99FBF5543A}"/>
     <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
@@ -763,6 +814,7 @@
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="28" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="73" xr:uid="{5B9ABF0E-DFBD-4120-83B5-CC3BF2E5EB9F}"/>
     <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
@@ -777,21 +829,29 @@
     <cellStyle name="Normal 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Normal 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Normal 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 2 3" xfId="74" xr:uid="{C280913B-4DD4-4BC2-8A68-A0BC8A45EB9E}"/>
     <cellStyle name="Normal 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 3 2" xfId="75" xr:uid="{CBEA8C3E-9C45-4BE8-B19B-8B8E3B8BD150}"/>
     <cellStyle name="Normal 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Normal 5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Note 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Note 2 2" xfId="76" xr:uid="{3372D0A6-E339-4E4F-9DE9-A10A6B17D44E}"/>
     <cellStyle name="Output" xfId="46" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Style1" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Style2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Style2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Style2 3" xfId="77" xr:uid="{F4E22D69-A176-4FA7-87B5-B1A132544591}"/>
     <cellStyle name="Style3" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Style3 2" xfId="78" xr:uid="{31FDCD41-4CEB-476E-973B-2184B79697A5}"/>
     <cellStyle name="Style4" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Style4 2" xfId="79" xr:uid="{D1539DFC-CAC2-43BD-92C9-522AA3088B40}"/>
     <cellStyle name="Style5" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Style5 2" xfId="80" xr:uid="{98B284C6-584F-4EE8-8A0E-F23FAFC3404D}"/>
     <cellStyle name="Style6" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Style6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Style7" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Style7 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Style7 2 2" xfId="81" xr:uid="{07815330-0BD1-436D-9FD5-D76041DD036A}"/>
     <cellStyle name="Style8" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="Title" xfId="58" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="59" builtinId="25" customBuiltin="1"/>
@@ -1221,14 +1281,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC51"/>
+  <dimension ref="A1:BC53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:IV4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:IV4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:IV4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="10"/>
@@ -1241,34 +1301,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="9"/>
@@ -3248,20 +3308,132 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="12"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
+      <c r="A50" s="10">
+        <v>44075</v>
+      </c>
+      <c r="B50" s="14">
+        <v>10090</v>
+      </c>
+      <c r="C50" s="14">
+        <v>20</v>
+      </c>
+      <c r="D50" s="14">
+        <v>2430</v>
+      </c>
+      <c r="E50" s="14">
+        <v>1260</v>
+      </c>
+      <c r="F50" s="14">
+        <v>2170</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <v>750</v>
+      </c>
+      <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
+        <v>16720</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B51"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="10">
+        <v>44105</v>
+      </c>
+      <c r="B51" s="14">
+        <v>13720</v>
+      </c>
+      <c r="C51" s="14">
+        <v>20</v>
+      </c>
+      <c r="D51" s="14">
+        <v>4140</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1810</v>
+      </c>
+      <c r="F51" s="14">
+        <v>3630</v>
+      </c>
+      <c r="G51" s="14">
+        <v>110</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1270</v>
+      </c>
+      <c r="I51" s="14">
+        <v>10</v>
+      </c>
+      <c r="J51" s="14">
+        <v>24710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="10">
+        <v>44136</v>
+      </c>
+      <c r="B52" s="14">
+        <v>16440</v>
+      </c>
+      <c r="C52" s="14">
+        <v>550</v>
+      </c>
+      <c r="D52" s="14">
+        <v>5780</v>
+      </c>
+      <c r="E52" s="14">
+        <v>1090</v>
+      </c>
+      <c r="F52" s="14">
+        <v>4490</v>
+      </c>
+      <c r="G52" s="14">
+        <v>40</v>
+      </c>
+      <c r="H52" s="14">
+        <v>1240</v>
+      </c>
+      <c r="I52" s="14">
+        <v>150</v>
+      </c>
+      <c r="J52" s="14">
+        <v>29770</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="10">
+        <v>44166</v>
+      </c>
+      <c r="B53" s="14">
+        <v>16410</v>
+      </c>
+      <c r="C53" s="14">
+        <v>5330</v>
+      </c>
+      <c r="D53" s="14">
+        <v>6200</v>
+      </c>
+      <c r="E53" s="14">
+        <v>1410</v>
+      </c>
+      <c r="F53" s="14">
+        <v>4580</v>
+      </c>
+      <c r="G53" s="14">
+        <v>140</v>
+      </c>
+      <c r="H53" s="14">
+        <v>1030</v>
+      </c>
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>35120</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
